--- a/historical/Balancetes_por_ticker.xlsx
+++ b/historical/Balancetes_por_ticker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Python\Balancetes\historical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC1E7CE8-3485-42DB-B650-C8217EFBCB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2811B67-F300-403C-B064-07E90733AA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRSR" sheetId="3" r:id="rId1"/>
@@ -28,6 +28,9 @@
     <sheet name="BLIS" sheetId="22" r:id="rId13"/>
     <sheet name="BGIP" sheetId="9" r:id="rId14"/>
     <sheet name="BBAS" sheetId="23" r:id="rId15"/>
+    <sheet name="XPBR" sheetId="25" r:id="rId16"/>
+    <sheet name="ROXO" sheetId="24" r:id="rId17"/>
+    <sheet name="INBR" sheetId="26" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5835" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6693" uniqueCount="170">
   <si>
     <t>#DATA_BASE</t>
   </si>
@@ -532,6 +535,24 @@
   <si>
     <t>BCO DO BRASIL S.A.</t>
   </si>
+  <si>
+    <t>33264668</t>
+  </si>
+  <si>
+    <t>BCO XP S.A.</t>
+  </si>
+  <si>
+    <t>30680829</t>
+  </si>
+  <si>
+    <t>NU FINANCEIRA S.A. CFI</t>
+  </si>
+  <si>
+    <t>00416968</t>
+  </si>
+  <si>
+    <t>BANCO INTER</t>
+  </si>
 </sst>
 </file>
 
@@ -16393,7 +16414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -18981,6 +19002,5711 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC460C5-76B2-4B4B-B5FE-C5901DB5D731}">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2">
+        <v>591616.81999999983</v>
+      </c>
+      <c r="E2">
+        <v>591616.81999999983</v>
+      </c>
+      <c r="F2">
+        <v>100007999.34999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3">
+        <v>-110422.1799999997</v>
+      </c>
+      <c r="E3">
+        <v>481194.64000000007</v>
+      </c>
+      <c r="F3">
+        <v>100007999.34999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4">
+        <v>-8412305.6300000008</v>
+      </c>
+      <c r="E4">
+        <v>-7931110.9900000002</v>
+      </c>
+      <c r="F4">
+        <v>100007999.34999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5">
+        <v>-1686646.0100000021</v>
+      </c>
+      <c r="E5">
+        <v>-1686646.0100000021</v>
+      </c>
+      <c r="F5">
+        <v>92076888.359999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6">
+        <v>-1001629.119999997</v>
+      </c>
+      <c r="E6">
+        <v>-2688275.129999999</v>
+      </c>
+      <c r="F6">
+        <v>92063637.519999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7">
+        <v>6634056.979999993</v>
+      </c>
+      <c r="E7">
+        <v>3945781.849999994</v>
+      </c>
+      <c r="F7">
+        <v>92076888.359999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8">
+        <v>10217299.09000003</v>
+      </c>
+      <c r="E8">
+        <v>14163080.940000029</v>
+      </c>
+      <c r="F8">
+        <v>92076888.359999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9">
+        <v>13213657.859999981</v>
+      </c>
+      <c r="E9">
+        <v>27376738.800000008</v>
+      </c>
+      <c r="F9">
+        <v>92076888.359999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10">
+        <v>15246493.83999997</v>
+      </c>
+      <c r="E10">
+        <v>42623232.639999993</v>
+      </c>
+      <c r="F10">
+        <v>92076888.359999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11">
+        <v>18733610.609999981</v>
+      </c>
+      <c r="E11">
+        <v>18733610.609999981</v>
+      </c>
+      <c r="F11">
+        <v>134700121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12">
+        <v>7833713.900000006</v>
+      </c>
+      <c r="E12">
+        <v>26567324.50999999</v>
+      </c>
+      <c r="F12">
+        <v>134700121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13">
+        <v>39285377.519999981</v>
+      </c>
+      <c r="E13">
+        <v>65852702.029999971</v>
+      </c>
+      <c r="F13">
+        <v>134717162.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14">
+        <v>-6380224.6599999666</v>
+      </c>
+      <c r="E14">
+        <v>59472477.369999997</v>
+      </c>
+      <c r="F14">
+        <v>135160074.86000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15">
+        <v>-4288325.8099999428</v>
+      </c>
+      <c r="E15">
+        <v>55184151.560000062</v>
+      </c>
+      <c r="F15">
+        <v>135330233.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16">
+        <v>-11287453.76000011</v>
+      </c>
+      <c r="E16">
+        <v>43896697.799999952</v>
+      </c>
+      <c r="F16">
+        <v>639900318.89999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17">
+        <v>-67332.669999957085</v>
+      </c>
+      <c r="E17">
+        <v>-67332.669999957085</v>
+      </c>
+      <c r="F17">
+        <v>691245448.28999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18">
+        <v>1742595.0499999521</v>
+      </c>
+      <c r="E18">
+        <v>1675262.379999995</v>
+      </c>
+      <c r="F18">
+        <v>669562448.85000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19">
+        <v>-3266213.9100000858</v>
+      </c>
+      <c r="E19">
+        <v>-1590951.5300000911</v>
+      </c>
+      <c r="F19">
+        <v>647439317.61000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20">
+        <v>-991174.7199999094</v>
+      </c>
+      <c r="E20">
+        <v>-2582126.25</v>
+      </c>
+      <c r="F20">
+        <v>647993709.79999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21">
+        <v>-4574876.8400001526</v>
+      </c>
+      <c r="E21">
+        <v>-7157003.0900001526</v>
+      </c>
+      <c r="F21">
+        <v>656709416.69000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22">
+        <v>9784151.8299999237</v>
+      </c>
+      <c r="E22">
+        <v>2627148.7399997711</v>
+      </c>
+      <c r="F22">
+        <v>664100867.98000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23">
+        <v>-5277536.3200000525</v>
+      </c>
+      <c r="E23">
+        <v>-5277536.3200000525</v>
+      </c>
+      <c r="F23">
+        <v>650749864.59000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24">
+        <v>16394479.31000006</v>
+      </c>
+      <c r="E24">
+        <v>11116942.99000001</v>
+      </c>
+      <c r="F24">
+        <v>615257889.16999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25">
+        <v>-17112225.049999949</v>
+      </c>
+      <c r="E25">
+        <v>-5995282.0599999428</v>
+      </c>
+      <c r="F25">
+        <v>602284930.96000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26">
+        <v>17553562.429999828</v>
+      </c>
+      <c r="E26">
+        <v>11558280.369999889</v>
+      </c>
+      <c r="F26">
+        <v>534873712.23000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27">
+        <v>117353993.7400002</v>
+      </c>
+      <c r="E27">
+        <v>128912274.1100001</v>
+      </c>
+      <c r="F27">
+        <v>573073284.50999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28">
+        <v>-3363915.050000668</v>
+      </c>
+      <c r="E28">
+        <v>125548359.0599995</v>
+      </c>
+      <c r="F28">
+        <v>596874664.45000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29">
+        <v>49470435.529999971</v>
+      </c>
+      <c r="E29">
+        <v>49470435.529999971</v>
+      </c>
+      <c r="F29">
+        <v>695214724.96000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30">
+        <v>76484598.670000076</v>
+      </c>
+      <c r="E30">
+        <v>125955034.2</v>
+      </c>
+      <c r="F30">
+        <v>708615458.99000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31">
+        <v>70661918.939999819</v>
+      </c>
+      <c r="E31">
+        <v>196616953.1399999</v>
+      </c>
+      <c r="F31">
+        <v>690395079.63999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32">
+        <v>12401052.36000013</v>
+      </c>
+      <c r="E32">
+        <v>209018005.5</v>
+      </c>
+      <c r="F32">
+        <v>640888749.08000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33">
+        <v>12708621.53000069</v>
+      </c>
+      <c r="E33">
+        <v>221726627.03000069</v>
+      </c>
+      <c r="F33">
+        <v>644691708.16999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34">
+        <v>13444874.96000004</v>
+      </c>
+      <c r="E34">
+        <v>235171501.99000069</v>
+      </c>
+      <c r="F34">
+        <v>594826468.70000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35">
+        <v>112393.62000012401</v>
+      </c>
+      <c r="E35">
+        <v>112393.62000012401</v>
+      </c>
+      <c r="F35">
+        <v>897822604.66999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36">
+        <v>-4837013.9800002566</v>
+      </c>
+      <c r="E36">
+        <v>-4724620.3600001344</v>
+      </c>
+      <c r="F36">
+        <v>927745692.15999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37">
+        <v>36790858.159999847</v>
+      </c>
+      <c r="E37">
+        <v>32066237.79999971</v>
+      </c>
+      <c r="F37">
+        <v>918961155.16999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38">
+        <v>53352578.120000362</v>
+      </c>
+      <c r="E38">
+        <v>85418815.920000076</v>
+      </c>
+      <c r="F38">
+        <v>990438123.30999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39">
+        <v>-182420635.68999961</v>
+      </c>
+      <c r="E39">
+        <v>-97001819.769999504</v>
+      </c>
+      <c r="F39">
+        <v>964133890.53999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40">
+        <v>-24528261.300000191</v>
+      </c>
+      <c r="E40">
+        <v>-121530081.06999969</v>
+      </c>
+      <c r="F40">
+        <v>949949915.22000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41">
+        <v>30798954.700000051</v>
+      </c>
+      <c r="E41">
+        <v>30798954.700000051</v>
+      </c>
+      <c r="F41">
+        <v>770105882.61000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42">
+        <v>3523657.3199999328</v>
+      </c>
+      <c r="E42">
+        <v>34322612.019999981</v>
+      </c>
+      <c r="F42">
+        <v>803407258.57000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43">
+        <v>-56964205.170000076</v>
+      </c>
+      <c r="E43">
+        <v>-22641593.150000099</v>
+      </c>
+      <c r="F43">
+        <v>860643893.53999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44">
+        <v>-12033194.67999983</v>
+      </c>
+      <c r="E44">
+        <v>-34674787.829999924</v>
+      </c>
+      <c r="F44">
+        <v>871495784.54999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45">
+        <v>-1544540.619999886</v>
+      </c>
+      <c r="E45">
+        <v>-36219328.449999809</v>
+      </c>
+      <c r="F45">
+        <v>903790967.98000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46">
+        <v>1943998.899999619</v>
+      </c>
+      <c r="E46">
+        <v>-34275329.550000191</v>
+      </c>
+      <c r="F46">
+        <v>948751761.05999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47">
+        <v>24983054.07999992</v>
+      </c>
+      <c r="E47">
+        <v>24983054.07999992</v>
+      </c>
+      <c r="F47">
+        <v>2134709020.95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48">
+        <v>-14084242.25999975</v>
+      </c>
+      <c r="E48">
+        <v>10898811.82000017</v>
+      </c>
+      <c r="F48">
+        <v>2139616597.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49">
+        <v>-62338575.139999866</v>
+      </c>
+      <c r="E49">
+        <v>-51439763.319999687</v>
+      </c>
+      <c r="F49">
+        <v>2116758144.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50">
+        <v>-36324378.510000229</v>
+      </c>
+      <c r="E50">
+        <v>-87764141.829999924</v>
+      </c>
+      <c r="F50">
+        <v>2098923419.6700001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51">
+        <v>-7154144.6499996195</v>
+      </c>
+      <c r="E51">
+        <v>-94918286.479999542</v>
+      </c>
+      <c r="F51">
+        <v>2145320871.54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52">
+        <v>34212519.239999771</v>
+      </c>
+      <c r="E52">
+        <v>-60705767.239999771</v>
+      </c>
+      <c r="F52">
+        <v>2152694069.1500001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53">
+        <v>-59345948.400000103</v>
+      </c>
+      <c r="E53">
+        <v>-59345948.400000103</v>
+      </c>
+      <c r="F53">
+        <v>10492154499.33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54">
+        <v>-4567966.8499999046</v>
+      </c>
+      <c r="E54">
+        <v>-63913915.25</v>
+      </c>
+      <c r="F54">
+        <v>8694246754.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55">
+        <v>134454200.31999969</v>
+      </c>
+      <c r="E55">
+        <v>70540285.069999695</v>
+      </c>
+      <c r="F55">
+        <v>8663940339.4500008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56">
+        <v>72722271.31000042</v>
+      </c>
+      <c r="E56">
+        <v>143262556.38000011</v>
+      </c>
+      <c r="F56">
+        <v>8482010210.9799995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57">
+        <v>44456570.519999497</v>
+      </c>
+      <c r="E57">
+        <v>187719126.89999959</v>
+      </c>
+      <c r="F57">
+        <v>8492925438.7600002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58">
+        <v>147228094.10000041</v>
+      </c>
+      <c r="E58">
+        <v>334947221</v>
+      </c>
+      <c r="F58">
+        <v>8307590153.8000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59">
+        <v>35617497.599999897</v>
+      </c>
+      <c r="E59">
+        <v>35617497.599999897</v>
+      </c>
+      <c r="F59">
+        <v>8751549825.1000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60">
+        <v>10633818.13999987</v>
+      </c>
+      <c r="E60">
+        <v>46251315.739999771</v>
+      </c>
+      <c r="F60">
+        <v>8779148636.6599998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61">
+        <v>184797551.44999889</v>
+      </c>
+      <c r="E61">
+        <v>231048867.1899986</v>
+      </c>
+      <c r="F61">
+        <v>8702053324.4500008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62">
+        <v>-50638910.959997177</v>
+      </c>
+      <c r="E62">
+        <v>180409956.23000139</v>
+      </c>
+      <c r="F62">
+        <v>8426306227.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63">
+        <v>420339189.40999788</v>
+      </c>
+      <c r="E63">
+        <v>600749145.63999939</v>
+      </c>
+      <c r="F63">
+        <v>10455404330.059999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64">
+        <v>-26790004.709999081</v>
+      </c>
+      <c r="E64">
+        <v>573959140.93000031</v>
+      </c>
+      <c r="F64">
+        <v>10208890266.92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65">
+        <v>-43407684.390000343</v>
+      </c>
+      <c r="E65">
+        <v>-43407684.390000343</v>
+      </c>
+      <c r="F65">
+        <v>11429859034.51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66">
+        <v>-219865851.2300005</v>
+      </c>
+      <c r="E66">
+        <v>-263273535.62000081</v>
+      </c>
+      <c r="F66">
+        <v>11509326335.34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67">
+        <v>519667308.26000398</v>
+      </c>
+      <c r="E67">
+        <v>256393772.6400032</v>
+      </c>
+      <c r="F67">
+        <v>11461205081.68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68">
+        <v>-159644978.32000351</v>
+      </c>
+      <c r="E68">
+        <v>96748794.319999695</v>
+      </c>
+      <c r="F68">
+        <v>11554732408.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69">
+        <v>-1791745.0199966431</v>
+      </c>
+      <c r="E69">
+        <v>94957049.300003052</v>
+      </c>
+      <c r="F69">
+        <v>11576779746.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70">
+        <v>128096079.7299957</v>
+      </c>
+      <c r="E70">
+        <v>223053129.02999881</v>
+      </c>
+      <c r="F70">
+        <v>11640509302.709999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71">
+        <v>-11451992.81000042</v>
+      </c>
+      <c r="E71">
+        <v>-11451992.81000042</v>
+      </c>
+      <c r="F71">
+        <v>11811554597.799999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72">
+        <v>45012113.779999733</v>
+      </c>
+      <c r="E72">
+        <v>33560120.969999313</v>
+      </c>
+      <c r="F72">
+        <v>11927590659.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD6077F-B3AE-461D-9E13-7BE27814DDC3}">
+  <dimension ref="A1:F83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2">
+        <v>-1393211.85</v>
+      </c>
+      <c r="E2">
+        <v>-1393211.85</v>
+      </c>
+      <c r="F2">
+        <v>79986076.049999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>-821531.83999999985</v>
+      </c>
+      <c r="E3">
+        <v>-2214743.69</v>
+      </c>
+      <c r="F3">
+        <v>79986076.049999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4">
+        <v>-1085120.69</v>
+      </c>
+      <c r="E4">
+        <v>-1085120.69</v>
+      </c>
+      <c r="F4">
+        <v>77771332.359999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>-1153227.47</v>
+      </c>
+      <c r="E5">
+        <v>-2238348.16</v>
+      </c>
+      <c r="F5">
+        <v>77771332.359999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6">
+        <v>-1075351.6400000011</v>
+      </c>
+      <c r="E6">
+        <v>-3313699.8000000012</v>
+      </c>
+      <c r="F6">
+        <v>77771332.359999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7">
+        <v>-1078863.76</v>
+      </c>
+      <c r="E7">
+        <v>-4392563.5600000015</v>
+      </c>
+      <c r="F7">
+        <v>77771332.359999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8">
+        <v>-771389.08999999892</v>
+      </c>
+      <c r="E8">
+        <v>-5163952.6499999994</v>
+      </c>
+      <c r="F8">
+        <v>127779480.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9">
+        <v>-2963711.8200000012</v>
+      </c>
+      <c r="E9">
+        <v>-8127664.4700000007</v>
+      </c>
+      <c r="F9">
+        <v>128042807.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10">
+        <v>-3636265.0399999991</v>
+      </c>
+      <c r="E10">
+        <v>-3636265.0399999991</v>
+      </c>
+      <c r="F10">
+        <v>119948303.79000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11">
+        <v>-1192193.370000001</v>
+      </c>
+      <c r="E11">
+        <v>-4828458.41</v>
+      </c>
+      <c r="F11">
+        <v>119986645.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12">
+        <v>-2846425.0399999949</v>
+      </c>
+      <c r="E12">
+        <v>-7674883.4499999965</v>
+      </c>
+      <c r="F12">
+        <v>120029629.06999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13">
+        <v>-1151905.3600000071</v>
+      </c>
+      <c r="E13">
+        <v>-8826788.8100000024</v>
+      </c>
+      <c r="F13">
+        <v>120073290.34999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14">
+        <v>-2164568.7999999821</v>
+      </c>
+      <c r="E14">
+        <v>-10991357.609999981</v>
+      </c>
+      <c r="F14">
+        <v>120100919.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15">
+        <v>-1628831.690000027</v>
+      </c>
+      <c r="E15">
+        <v>-12620189.30000001</v>
+      </c>
+      <c r="F15">
+        <v>120118593.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16">
+        <v>-4028614.6299999952</v>
+      </c>
+      <c r="E16">
+        <v>-4028614.6299999952</v>
+      </c>
+      <c r="F16">
+        <v>107515546.59999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17">
+        <v>-11070178.03999999</v>
+      </c>
+      <c r="E17">
+        <v>-15098792.669999991</v>
+      </c>
+      <c r="F17">
+        <v>107728815.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18">
+        <v>-8045179.2999999821</v>
+      </c>
+      <c r="E18">
+        <v>-23143971.969999969</v>
+      </c>
+      <c r="F18">
+        <v>309361075.66000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19">
+        <v>-3540858.1300000548</v>
+      </c>
+      <c r="E19">
+        <v>-26684830.10000002</v>
+      </c>
+      <c r="F19">
+        <v>309543398.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20">
+        <v>-2652091.2799999709</v>
+      </c>
+      <c r="E20">
+        <v>-29336921.379999999</v>
+      </c>
+      <c r="F20">
+        <v>310138983.73000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21">
+        <v>-9280793.9699999094</v>
+      </c>
+      <c r="E21">
+        <v>-38617715.349999897</v>
+      </c>
+      <c r="F21">
+        <v>310324267.63999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22">
+        <v>-4137602.3200000231</v>
+      </c>
+      <c r="E22">
+        <v>-4137602.3200000231</v>
+      </c>
+      <c r="F22">
+        <v>536626517.54000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23">
+        <v>-5188842.2999999821</v>
+      </c>
+      <c r="E23">
+        <v>-9326444.6200000048</v>
+      </c>
+      <c r="F23">
+        <v>536807814.43000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24">
+        <v>-12264639.29999995</v>
+      </c>
+      <c r="E24">
+        <v>-21591083.919999961</v>
+      </c>
+      <c r="F24">
+        <v>537038140.26999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25">
+        <v>5293852.060000062</v>
+      </c>
+      <c r="E25">
+        <v>-16297231.859999901</v>
+      </c>
+      <c r="F25">
+        <v>537042293.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26">
+        <v>-13164764.67000008</v>
+      </c>
+      <c r="E26">
+        <v>-29461996.529999971</v>
+      </c>
+      <c r="F26">
+        <v>537194826.02999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27">
+        <v>24325275.130000111</v>
+      </c>
+      <c r="E27">
+        <v>-5136721.3999998569</v>
+      </c>
+      <c r="F27">
+        <v>787022077.40999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28">
+        <v>2827027.0399999619</v>
+      </c>
+      <c r="E28">
+        <v>2827027.0399999619</v>
+      </c>
+      <c r="F28">
+        <v>782075905.63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29">
+        <v>32161341.700000051</v>
+      </c>
+      <c r="E29">
+        <v>34988368.74000001</v>
+      </c>
+      <c r="F29">
+        <v>782711362.03999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30">
+        <v>90479683.899999857</v>
+      </c>
+      <c r="E30">
+        <v>125468052.6399999</v>
+      </c>
+      <c r="F30">
+        <v>1143397064.46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31">
+        <v>78024469.230000019</v>
+      </c>
+      <c r="E31">
+        <v>203492521.86999989</v>
+      </c>
+      <c r="F31">
+        <v>1144663384.5699999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32">
+        <v>116360326.4000001</v>
+      </c>
+      <c r="E32">
+        <v>319852848.26999998</v>
+      </c>
+      <c r="F32">
+        <v>2744180197.4400001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33">
+        <v>42888256.010000229</v>
+      </c>
+      <c r="E33">
+        <v>362741104.28000021</v>
+      </c>
+      <c r="F33">
+        <v>2745526068.8899999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34">
+        <v>88960215.450000048</v>
+      </c>
+      <c r="E34">
+        <v>88960215.450000048</v>
+      </c>
+      <c r="F34">
+        <v>3660565682.9699998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35">
+        <v>70311569.029999971</v>
+      </c>
+      <c r="E35">
+        <v>159271784.47999999</v>
+      </c>
+      <c r="F35">
+        <v>3665735562.1999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36">
+        <v>70654134.269999981</v>
+      </c>
+      <c r="E36">
+        <v>229925918.75</v>
+      </c>
+      <c r="F36">
+        <v>3671784812.6100001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37">
+        <v>110790394.03000019</v>
+      </c>
+      <c r="E37">
+        <v>340716312.78000021</v>
+      </c>
+      <c r="F37">
+        <v>3679848152.9699998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38">
+        <v>25817464.660000321</v>
+      </c>
+      <c r="E38">
+        <v>366533777.44000047</v>
+      </c>
+      <c r="F38">
+        <v>3685974913.0700002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39">
+        <v>130592490.57999989</v>
+      </c>
+      <c r="E39">
+        <v>497126268.02000052</v>
+      </c>
+      <c r="F39">
+        <v>3595317918.3099999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40">
+        <v>80892292.900000095</v>
+      </c>
+      <c r="E40">
+        <v>80892292.900000095</v>
+      </c>
+      <c r="F40">
+        <v>4107893020.9499998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41">
+        <v>98749661.949999809</v>
+      </c>
+      <c r="E41">
+        <v>179641954.8499999</v>
+      </c>
+      <c r="F41">
+        <v>4134164173.4200001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42">
+        <v>72037596.460000038</v>
+      </c>
+      <c r="E42">
+        <v>251679551.30999991</v>
+      </c>
+      <c r="F42">
+        <v>4133109135.1599998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43">
+        <v>58037393.459999561</v>
+      </c>
+      <c r="E43">
+        <v>309716944.7699995</v>
+      </c>
+      <c r="F43">
+        <v>4122129246.7399998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44">
+        <v>98080786.140000343</v>
+      </c>
+      <c r="E44">
+        <v>407797730.90999979</v>
+      </c>
+      <c r="F44">
+        <v>4129685274.29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45">
+        <v>44698716.840000153</v>
+      </c>
+      <c r="E45">
+        <v>452496447.75</v>
+      </c>
+      <c r="F45">
+        <v>4148394077.6999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46">
+        <v>76686618.799999952</v>
+      </c>
+      <c r="E46">
+        <v>76686618.799999952</v>
+      </c>
+      <c r="F46">
+        <v>4594489368.6800003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47">
+        <v>93914406.870000124</v>
+      </c>
+      <c r="E47">
+        <v>170601025.67000011</v>
+      </c>
+      <c r="F47">
+        <v>4596113300.9200001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48">
+        <v>61220702.280000687</v>
+      </c>
+      <c r="E48">
+        <v>231821727.95000079</v>
+      </c>
+      <c r="F48">
+        <v>4599619557.8299999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49">
+        <v>180328647.55999851</v>
+      </c>
+      <c r="E49">
+        <v>412150375.50999928</v>
+      </c>
+      <c r="F49">
+        <v>4603005104.7399998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50">
+        <v>132620976.3100004</v>
+      </c>
+      <c r="E50">
+        <v>544771351.81999969</v>
+      </c>
+      <c r="F50">
+        <v>4596065536.8100004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51">
+        <v>380024532.73000139</v>
+      </c>
+      <c r="E51">
+        <v>924795884.55000114</v>
+      </c>
+      <c r="F51">
+        <v>4578482037.29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52">
+        <v>221132723.9899998</v>
+      </c>
+      <c r="E52">
+        <v>221132723.9899998</v>
+      </c>
+      <c r="F52">
+        <v>5501875378.3000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53">
+        <v>148716065.2399998</v>
+      </c>
+      <c r="E53">
+        <v>369848789.22999948</v>
+      </c>
+      <c r="F53">
+        <v>5514629803.96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54">
+        <v>332991937.95000082</v>
+      </c>
+      <c r="E54">
+        <v>702840727.18000031</v>
+      </c>
+      <c r="F54">
+        <v>5512009014.9899998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55">
+        <v>287867913.97999948</v>
+      </c>
+      <c r="E55">
+        <v>990708641.15999985</v>
+      </c>
+      <c r="F55">
+        <v>5492860448.9200001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56">
+        <v>353506366.43999863</v>
+      </c>
+      <c r="E56">
+        <v>1344215007.599998</v>
+      </c>
+      <c r="F56">
+        <v>5506826231.2200003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57">
+        <v>349276657.1400013</v>
+      </c>
+      <c r="E57">
+        <v>1693491664.74</v>
+      </c>
+      <c r="F57">
+        <v>5520647154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58">
+        <v>392235299.98000002</v>
+      </c>
+      <c r="E58">
+        <v>392235299.98000002</v>
+      </c>
+      <c r="F58">
+        <v>7214902624.1300001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59">
+        <v>479522667.25999981</v>
+      </c>
+      <c r="E59">
+        <v>871757967.23999977</v>
+      </c>
+      <c r="F59">
+        <v>7222756230.1499996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60">
+        <v>493994368.47999948</v>
+      </c>
+      <c r="E60">
+        <v>1365752335.7199991</v>
+      </c>
+      <c r="F60">
+        <v>7236519903.3299999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61">
+        <v>497571405.07999992</v>
+      </c>
+      <c r="E61">
+        <v>1863323740.799999</v>
+      </c>
+      <c r="F61">
+        <v>7222314285.5900002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62">
+        <v>634603538.42000008</v>
+      </c>
+      <c r="E62">
+        <v>2497927279.2199988</v>
+      </c>
+      <c r="F62">
+        <v>7227412764.7799997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63">
+        <v>771297603.05000114</v>
+      </c>
+      <c r="E63">
+        <v>3269224882.27</v>
+      </c>
+      <c r="F63">
+        <v>6737904409.4399996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64">
+        <v>561146680.82999992</v>
+      </c>
+      <c r="E64">
+        <v>561146680.82999992</v>
+      </c>
+      <c r="F64">
+        <v>10005017219.790001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65">
+        <v>640283543.05000019</v>
+      </c>
+      <c r="E65">
+        <v>1201430223.8800001</v>
+      </c>
+      <c r="F65">
+        <v>10009952631.940001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66">
+        <v>635246769.4800005</v>
+      </c>
+      <c r="E66">
+        <v>1836676993.3600011</v>
+      </c>
+      <c r="F66">
+        <v>8929663722.6700001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67">
+        <v>727221058.05999947</v>
+      </c>
+      <c r="E67">
+        <v>2563898051.4200001</v>
+      </c>
+      <c r="F67">
+        <v>8917455710.2099991</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68">
+        <v>893729749.21000099</v>
+      </c>
+      <c r="E68">
+        <v>3457627800.6300011</v>
+      </c>
+      <c r="F68">
+        <v>8924595385.6200008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69">
+        <v>837999530.70999908</v>
+      </c>
+      <c r="E69">
+        <v>4295627331.3400002</v>
+      </c>
+      <c r="F69">
+        <v>8086616278.1000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70">
+        <v>589504892.8399992</v>
+      </c>
+      <c r="E70">
+        <v>589504892.8399992</v>
+      </c>
+      <c r="F70">
+        <v>12385567088</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71">
+        <v>844391948.92000103</v>
+      </c>
+      <c r="E71">
+        <v>1433896841.76</v>
+      </c>
+      <c r="F71">
+        <v>7761746571.3299999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72">
+        <v>856959913.59000015</v>
+      </c>
+      <c r="E72">
+        <v>2290856755.3499999</v>
+      </c>
+      <c r="F72">
+        <v>7781552487.4300003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73">
+        <v>733218132.41000175</v>
+      </c>
+      <c r="E73">
+        <v>3024074887.7600021</v>
+      </c>
+      <c r="F73">
+        <v>7784324221.2799997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74">
+        <v>841762623.93999863</v>
+      </c>
+      <c r="E74">
+        <v>3865837511.7000008</v>
+      </c>
+      <c r="F74">
+        <v>7791633127.8400002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75">
+        <v>966843424.06000137</v>
+      </c>
+      <c r="E75">
+        <v>4832680935.7600021</v>
+      </c>
+      <c r="F75">
+        <v>7753534966.1099997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76">
+        <v>661493615.64999962</v>
+      </c>
+      <c r="E76">
+        <v>661493615.64999962</v>
+      </c>
+      <c r="F76">
+        <v>10690512174.98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77">
+        <v>679849586.3900013</v>
+      </c>
+      <c r="E77">
+        <v>1341343202.0400009</v>
+      </c>
+      <c r="F77">
+        <v>10686887389.41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78">
+        <v>1162879462.3999979</v>
+      </c>
+      <c r="E78">
+        <v>2504222664.4399991</v>
+      </c>
+      <c r="F78">
+        <v>9604788266.3299999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79">
+        <v>752433703.02000046</v>
+      </c>
+      <c r="E79">
+        <v>3256656367.4599991</v>
+      </c>
+      <c r="F79">
+        <v>9193370065.3700008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80">
+        <v>1034887828.809998</v>
+      </c>
+      <c r="E80">
+        <v>4291544196.2699971</v>
+      </c>
+      <c r="F80">
+        <v>6509451207.7399998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81">
+        <v>1213041321.420006</v>
+      </c>
+      <c r="E81">
+        <v>5504585517.6900024</v>
+      </c>
+      <c r="F81">
+        <v>6529480581.8900003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82">
+        <v>1048472601.4299999</v>
+      </c>
+      <c r="E82">
+        <v>1048472601.4299999</v>
+      </c>
+      <c r="F82">
+        <v>12068298369.110001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83">
+        <v>474715021</v>
+      </c>
+      <c r="E83">
+        <v>1523187622.4300001</v>
+      </c>
+      <c r="F83">
+        <v>9958881161.0799999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C38281-6DE6-4717-BAD0-30A2ECA0FC02}">
+  <dimension ref="A1:F128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2">
+        <v>3854816.209999986</v>
+      </c>
+      <c r="E2">
+        <v>6383136.4499999881</v>
+      </c>
+      <c r="F2">
+        <v>305231418.11000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3">
+        <v>1469238.8000000119</v>
+      </c>
+      <c r="E3">
+        <v>7852375.25</v>
+      </c>
+      <c r="F3">
+        <v>305230617.36000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4">
+        <v>507891.33999997377</v>
+      </c>
+      <c r="E4">
+        <v>8360266.5899999738</v>
+      </c>
+      <c r="F4">
+        <v>305275502.29000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5">
+        <v>1967766.4300000069</v>
+      </c>
+      <c r="E5">
+        <v>10328033.019999981</v>
+      </c>
+      <c r="F5">
+        <v>305274522.44999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6">
+        <v>-3245483.0299999709</v>
+      </c>
+      <c r="E6">
+        <v>7082549.9900000095</v>
+      </c>
+      <c r="F6">
+        <v>312803922.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7">
+        <v>197312.79999999699</v>
+      </c>
+      <c r="E7">
+        <v>197312.79999999699</v>
+      </c>
+      <c r="F7">
+        <v>318527105.81999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8">
+        <v>2497607.5600000019</v>
+      </c>
+      <c r="E8">
+        <v>2694920.3599999989</v>
+      </c>
+      <c r="F8">
+        <v>318527821.17000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9">
+        <v>2109246.4899999951</v>
+      </c>
+      <c r="E9">
+        <v>4804166.849999994</v>
+      </c>
+      <c r="F9">
+        <v>322292761.05000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10">
+        <v>-3016457.0199999809</v>
+      </c>
+      <c r="E10">
+        <v>1787709.8300000131</v>
+      </c>
+      <c r="F10">
+        <v>322292954.11000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11">
+        <v>2627315.859999985</v>
+      </c>
+      <c r="E11">
+        <v>4415025.6899999976</v>
+      </c>
+      <c r="F11">
+        <v>322291901.85000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12">
+        <v>2756636.8999999762</v>
+      </c>
+      <c r="E12">
+        <v>7171662.5899999738</v>
+      </c>
+      <c r="F12">
+        <v>321259838.83999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13">
+        <v>4028443.43</v>
+      </c>
+      <c r="E13">
+        <v>4028443.43</v>
+      </c>
+      <c r="F13">
+        <v>328429673.64999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14">
+        <v>240272.8200000003</v>
+      </c>
+      <c r="E14">
+        <v>4268716.25</v>
+      </c>
+      <c r="F14">
+        <v>328422021.73000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15">
+        <v>-818681.81999999285</v>
+      </c>
+      <c r="E15">
+        <v>3450034.4300000072</v>
+      </c>
+      <c r="F15">
+        <v>333585399.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16">
+        <v>617126.20999997854</v>
+      </c>
+      <c r="E16">
+        <v>4067160.6399999862</v>
+      </c>
+      <c r="F16">
+        <v>333581331.16000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17">
+        <v>1337674.959999979</v>
+      </c>
+      <c r="E17">
+        <v>5404835.5999999642</v>
+      </c>
+      <c r="F17">
+        <v>333577541.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18">
+        <v>-5541259.7399999499</v>
+      </c>
+      <c r="E18">
+        <v>-136424.13999998569</v>
+      </c>
+      <c r="F18">
+        <v>338737932.62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19">
+        <v>869504.32999999821</v>
+      </c>
+      <c r="E19">
+        <v>869504.32999999821</v>
+      </c>
+      <c r="F19">
+        <v>338600051.81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20">
+        <v>3756906.209999993</v>
+      </c>
+      <c r="E20">
+        <v>4626410.5399999917</v>
+      </c>
+      <c r="F20">
+        <v>338596420.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21">
+        <v>-1113187.5</v>
+      </c>
+      <c r="E21">
+        <v>3513223.0399999921</v>
+      </c>
+      <c r="F21">
+        <v>343726778.19999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22">
+        <v>518623.96000000829</v>
+      </c>
+      <c r="E22">
+        <v>4031847</v>
+      </c>
+      <c r="F22">
+        <v>343619049.27999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23">
+        <v>1019366.659999967</v>
+      </c>
+      <c r="E23">
+        <v>5051213.6599999666</v>
+      </c>
+      <c r="F23">
+        <v>343024829.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24">
+        <v>-3781444.0599999428</v>
+      </c>
+      <c r="E24">
+        <v>1269769.6000000241</v>
+      </c>
+      <c r="F24">
+        <v>344277666.66000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25">
+        <v>387931.25999999791</v>
+      </c>
+      <c r="E25">
+        <v>387931.25999999791</v>
+      </c>
+      <c r="F25">
+        <v>345528819.19999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26">
+        <v>842177.89000000805</v>
+      </c>
+      <c r="E26">
+        <v>1230109.150000006</v>
+      </c>
+      <c r="F26">
+        <v>345508668.17000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27">
+        <v>-1315006.1000000241</v>
+      </c>
+      <c r="E27">
+        <v>-84896.950000017881</v>
+      </c>
+      <c r="F27">
+        <v>350756019.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28">
+        <v>5506805.8900000146</v>
+      </c>
+      <c r="E28">
+        <v>5421908.9399999976</v>
+      </c>
+      <c r="F28">
+        <v>350664878.69999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29">
+        <v>7287073.7899999917</v>
+      </c>
+      <c r="E29">
+        <v>12708982.729999989</v>
+      </c>
+      <c r="F29">
+        <v>350769541.14999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30">
+        <v>-2929207.869999975</v>
+      </c>
+      <c r="E30">
+        <v>9779774.8600000143</v>
+      </c>
+      <c r="F30">
+        <v>356255354.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31">
+        <v>3484288.1199999969</v>
+      </c>
+      <c r="E31">
+        <v>3484288.1199999969</v>
+      </c>
+      <c r="F31">
+        <v>366089555.20999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32">
+        <v>2324308.0800000061</v>
+      </c>
+      <c r="E32">
+        <v>5808596.200000003</v>
+      </c>
+      <c r="F32">
+        <v>366099796.04000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33">
+        <v>-1513367.8999999911</v>
+      </c>
+      <c r="E33">
+        <v>4295228.3000000119</v>
+      </c>
+      <c r="F33">
+        <v>366131952.51999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34">
+        <v>2022996.129999995</v>
+      </c>
+      <c r="E34">
+        <v>6318224.4300000072</v>
+      </c>
+      <c r="F34">
+        <v>366085943.26999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35">
+        <v>6416368.5900000036</v>
+      </c>
+      <c r="E35">
+        <v>12734593.020000011</v>
+      </c>
+      <c r="F35">
+        <v>366090312.63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36">
+        <v>1025587.229999989</v>
+      </c>
+      <c r="E36">
+        <v>13760180.25</v>
+      </c>
+      <c r="F36">
+        <v>369331813.79000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37">
+        <v>-1391680.57</v>
+      </c>
+      <c r="E37">
+        <v>-1391680.57</v>
+      </c>
+      <c r="F37">
+        <v>383090469.06999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38">
+        <v>2831472.6600000039</v>
+      </c>
+      <c r="E38">
+        <v>1439792.090000004</v>
+      </c>
+      <c r="F38">
+        <v>383012685.12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39">
+        <v>3006523.2700000112</v>
+      </c>
+      <c r="E39">
+        <v>4446315.3600000143</v>
+      </c>
+      <c r="F39">
+        <v>382985927.94999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40">
+        <v>1111471.5199999809</v>
+      </c>
+      <c r="E40">
+        <v>5557786.8799999952</v>
+      </c>
+      <c r="F40">
+        <v>383006747.74000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41">
+        <v>3030717.5299999709</v>
+      </c>
+      <c r="E41">
+        <v>8588504.4099999666</v>
+      </c>
+      <c r="F41">
+        <v>925018759.50999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42">
+        <v>1107918.6700000169</v>
+      </c>
+      <c r="E42">
+        <v>9696423.0799999833</v>
+      </c>
+      <c r="F42">
+        <v>908509494.00999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43">
+        <v>4052966.25</v>
+      </c>
+      <c r="E43">
+        <v>4052966.25</v>
+      </c>
+      <c r="F43">
+        <v>918227160.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44">
+        <v>2179197.75</v>
+      </c>
+      <c r="E44">
+        <v>6232164</v>
+      </c>
+      <c r="F44">
+        <v>918299953.30999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45">
+        <v>3318959.4199999869</v>
+      </c>
+      <c r="E45">
+        <v>9551123.4199999869</v>
+      </c>
+      <c r="F45">
+        <v>926631483.29999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46">
+        <v>5572356.3900000146</v>
+      </c>
+      <c r="E46">
+        <v>15123479.810000001</v>
+      </c>
+      <c r="F46">
+        <v>927038839.52999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47">
+        <v>3181747.7100000381</v>
+      </c>
+      <c r="E47">
+        <v>18305227.520000041</v>
+      </c>
+      <c r="F47">
+        <v>927233043.10000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48">
+        <v>3073028.8899999261</v>
+      </c>
+      <c r="E48">
+        <v>21378256.40999997</v>
+      </c>
+      <c r="F48">
+        <v>927403233.27999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49">
+        <v>-84975.989999994636</v>
+      </c>
+      <c r="E49">
+        <v>-84975.989999994636</v>
+      </c>
+      <c r="F49">
+        <v>948791040.79999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50">
+        <v>-471376.22000001371</v>
+      </c>
+      <c r="E50">
+        <v>-556352.21000000834</v>
+      </c>
+      <c r="F50">
+        <v>948800231.73000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51">
+        <v>12631294.140000019</v>
+      </c>
+      <c r="E51">
+        <v>12074941.930000011</v>
+      </c>
+      <c r="F51">
+        <v>936010295.94000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52">
+        <v>92753.919999957085</v>
+      </c>
+      <c r="E52">
+        <v>12167695.849999961</v>
+      </c>
+      <c r="F52">
+        <v>937006682.25999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53">
+        <v>1739983.7500000601</v>
+      </c>
+      <c r="E53">
+        <v>13907679.60000002</v>
+      </c>
+      <c r="F53">
+        <v>937017024.92999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54">
+        <v>31094584.719999969</v>
+      </c>
+      <c r="E54">
+        <v>45002264.319999993</v>
+      </c>
+      <c r="F54">
+        <v>927649320.67999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55">
+        <v>1847485.370000005</v>
+      </c>
+      <c r="E55">
+        <v>1847485.370000005</v>
+      </c>
+      <c r="F55">
+        <v>1011993900.84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56">
+        <v>1430498.209999979</v>
+      </c>
+      <c r="E56">
+        <v>3277983.5799999828</v>
+      </c>
+      <c r="F56">
+        <v>2191119859.9899998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57">
+        <v>7330787.7700000107</v>
+      </c>
+      <c r="E57">
+        <v>10608771.34999999</v>
+      </c>
+      <c r="F57">
+        <v>2177608955.9099998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58">
+        <v>-3572465.370000035</v>
+      </c>
+      <c r="E58">
+        <v>7036305.9799999585</v>
+      </c>
+      <c r="F58">
+        <v>2177633989.48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59">
+        <v>-4432776.7999999523</v>
+      </c>
+      <c r="E59">
+        <v>2603529.1800000072</v>
+      </c>
+      <c r="F59">
+        <v>2178615874.2800002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60">
+        <v>31273582.58999997</v>
+      </c>
+      <c r="E60">
+        <v>33877111.769999981</v>
+      </c>
+      <c r="F60">
+        <v>2167141407.1199999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61">
+        <v>-10064760.27</v>
+      </c>
+      <c r="E61">
+        <v>-10064760.27</v>
+      </c>
+      <c r="F61">
+        <v>2201041312.8699999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62">
+        <v>-3448795.6600000109</v>
+      </c>
+      <c r="E62">
+        <v>-13513555.930000011</v>
+      </c>
+      <c r="F62">
+        <v>2200994775.6100001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63">
+        <v>3643577.7500000601</v>
+      </c>
+      <c r="E63">
+        <v>-9869978.1799999475</v>
+      </c>
+      <c r="F63">
+        <v>2157822155.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64">
+        <v>-20401204.060000058</v>
+      </c>
+      <c r="E64">
+        <v>-30271182.24000001</v>
+      </c>
+      <c r="F64">
+        <v>2150405301.96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65">
+        <v>-1828095.0600000019</v>
+      </c>
+      <c r="E65">
+        <v>-32099277.300000008</v>
+      </c>
+      <c r="F65">
+        <v>2150796887.7399998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66">
+        <v>22527130.970000088</v>
+      </c>
+      <c r="E66">
+        <v>-9572146.3299999237</v>
+      </c>
+      <c r="F66">
+        <v>2124733476.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67">
+        <v>-1949376.040000021</v>
+      </c>
+      <c r="E67">
+        <v>-1949376.040000021</v>
+      </c>
+      <c r="F67">
+        <v>2116283884.1400001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68">
+        <v>-14048502.16</v>
+      </c>
+      <c r="E68">
+        <v>-15997878.20000002</v>
+      </c>
+      <c r="F68">
+        <v>2128599087.1800001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69">
+        <v>3627186.0000000298</v>
+      </c>
+      <c r="E69">
+        <v>-12370692.19999999</v>
+      </c>
+      <c r="F69">
+        <v>3264330028.1799998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70">
+        <v>-6067766.0900000334</v>
+      </c>
+      <c r="E70">
+        <v>-18438458.290000021</v>
+      </c>
+      <c r="F70">
+        <v>3265507803.52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71">
+        <v>9114757.7600000501</v>
+      </c>
+      <c r="E71">
+        <v>-9323700.5299999714</v>
+      </c>
+      <c r="F71">
+        <v>3255261346.3699999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72">
+        <v>11699130.02999997</v>
+      </c>
+      <c r="E72">
+        <v>2375429.5</v>
+      </c>
+      <c r="F72">
+        <v>3300312322.2199998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73">
+        <v>4726201.5300000012</v>
+      </c>
+      <c r="E73">
+        <v>4726201.5300000012</v>
+      </c>
+      <c r="F73">
+        <v>3273124248.21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74">
+        <v>122069.1400000155</v>
+      </c>
+      <c r="E74">
+        <v>4848270.6700000167</v>
+      </c>
+      <c r="F74">
+        <v>3208952922.3899999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75">
+        <v>10023344.77999991</v>
+      </c>
+      <c r="E75">
+        <v>14871615.44999993</v>
+      </c>
+      <c r="F75">
+        <v>3151924033.6300001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76">
+        <v>-8089698.3199999332</v>
+      </c>
+      <c r="E76">
+        <v>6781917.1299999952</v>
+      </c>
+      <c r="F76">
+        <v>3144412565.2199998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77">
+        <v>-9092408.6399999857</v>
+      </c>
+      <c r="E77">
+        <v>-2310491.50999999</v>
+      </c>
+      <c r="F77">
+        <v>3137121117.6300001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78">
+        <v>26870740.169999842</v>
+      </c>
+      <c r="E78">
+        <v>24560248.659999851</v>
+      </c>
+      <c r="F78">
+        <v>8535562024.1599998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79">
+        <v>4878099.5600000024</v>
+      </c>
+      <c r="E79">
+        <v>4878099.5600000024</v>
+      </c>
+      <c r="F79">
+        <v>8516051469.8299999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80">
+        <v>5837336.0200000415</v>
+      </c>
+      <c r="E80">
+        <v>10715435.580000039</v>
+      </c>
+      <c r="F80">
+        <v>8430936366.5900002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81">
+        <v>3447769.3899999862</v>
+      </c>
+      <c r="E81">
+        <v>14163204.97000003</v>
+      </c>
+      <c r="F81">
+        <v>8350437202.4899998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82">
+        <v>-6787843.8400001526</v>
+      </c>
+      <c r="E82">
+        <v>7375361.129999876</v>
+      </c>
+      <c r="F82">
+        <v>8408126811.7299995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83">
+        <v>2547066.7200000291</v>
+      </c>
+      <c r="E83">
+        <v>9922427.8499999046</v>
+      </c>
+      <c r="F83">
+        <v>8466421854.8800001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84">
+        <v>142941.68000006679</v>
+      </c>
+      <c r="E84">
+        <v>10065369.52999997</v>
+      </c>
+      <c r="F84">
+        <v>8478575006.0799999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85">
+        <v>-21894277.540000021</v>
+      </c>
+      <c r="E85">
+        <v>-21894277.540000021</v>
+      </c>
+      <c r="F85">
+        <v>8444088537.8999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86">
+        <v>-10628690.47000009</v>
+      </c>
+      <c r="E86">
+        <v>-32522968.01000011</v>
+      </c>
+      <c r="F86">
+        <v>8437256809.1300001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87">
+        <v>49526078.470000148</v>
+      </c>
+      <c r="E87">
+        <v>17003110.460000038</v>
+      </c>
+      <c r="F87">
+        <v>8411165942.96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88">
+        <v>-14601085.28999996</v>
+      </c>
+      <c r="E88">
+        <v>2402025.1700000758</v>
+      </c>
+      <c r="F88">
+        <v>8373421203.6000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89">
+        <v>-4512820.8899998656</v>
+      </c>
+      <c r="E89">
+        <v>-2110795.7199997902</v>
+      </c>
+      <c r="F89">
+        <v>8369170292.6000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90">
+        <v>31109201.559999939</v>
+      </c>
+      <c r="E90">
+        <v>28998405.840000149</v>
+      </c>
+      <c r="F90">
+        <v>8319551769.1000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91">
+        <v>-22397949.710000038</v>
+      </c>
+      <c r="E91">
+        <v>-22397949.710000038</v>
+      </c>
+      <c r="F91">
+        <v>8334876797.7200003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92">
+        <v>-22059662.25</v>
+      </c>
+      <c r="E92">
+        <v>-44457611.960000038</v>
+      </c>
+      <c r="F92">
+        <v>8385415721.8299999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93">
+        <v>-23147845.769999981</v>
+      </c>
+      <c r="E93">
+        <v>-67605457.730000019</v>
+      </c>
+      <c r="F93">
+        <v>8419003777.4300003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94">
+        <v>-31769859</v>
+      </c>
+      <c r="E94">
+        <v>-99375316.730000019</v>
+      </c>
+      <c r="F94">
+        <v>7285773301.2799997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>168</v>
+      </c>
+      <c r="C95" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95">
+        <v>-24788509.130000111</v>
+      </c>
+      <c r="E95">
+        <v>-124163825.8600001</v>
+      </c>
+      <c r="F95">
+        <v>7232274276.6199999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96">
+        <v>5177028.1199998856</v>
+      </c>
+      <c r="E96">
+        <v>-118986797.7400002</v>
+      </c>
+      <c r="F96">
+        <v>7197828971.1300001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" t="s">
+        <v>169</v>
+      </c>
+      <c r="D97">
+        <v>-26446855.290000081</v>
+      </c>
+      <c r="E97">
+        <v>-26446855.290000081</v>
+      </c>
+      <c r="F97">
+        <v>7064082107.25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98">
+        <v>-9297955.4700001478</v>
+      </c>
+      <c r="E98">
+        <v>-35744810.760000229</v>
+      </c>
+      <c r="F98">
+        <v>7064128803.1300001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" t="s">
+        <v>169</v>
+      </c>
+      <c r="D99">
+        <v>26008362.5400002</v>
+      </c>
+      <c r="E99">
+        <v>-9736448.2200000286</v>
+      </c>
+      <c r="F99">
+        <v>7105649952.5699997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" t="s">
+        <v>169</v>
+      </c>
+      <c r="D100">
+        <v>-9960063.9700000286</v>
+      </c>
+      <c r="E100">
+        <v>-19696512.190000061</v>
+      </c>
+      <c r="F100">
+        <v>7120721873.4099998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101">
+        <v>11203332.20000029</v>
+      </c>
+      <c r="E101">
+        <v>-8493179.9899997711</v>
+      </c>
+      <c r="F101">
+        <v>7185926964.3699999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102">
+        <v>35039440.729999542</v>
+      </c>
+      <c r="E102">
+        <v>26546260.739999771</v>
+      </c>
+      <c r="F102">
+        <v>7229921966.8100004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103">
+        <v>12518252.75999999</v>
+      </c>
+      <c r="E103">
+        <v>12518252.75999999</v>
+      </c>
+      <c r="F103">
+        <v>7253187856.6400003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104">
+        <v>23904234.74000001</v>
+      </c>
+      <c r="E104">
+        <v>36422487.5</v>
+      </c>
+      <c r="F104">
+        <v>7198767289.9899998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105">
+        <v>8695574.3200001717</v>
+      </c>
+      <c r="E105">
+        <v>45118061.820000172</v>
+      </c>
+      <c r="F105">
+        <v>7171102567.4200001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106">
+        <v>46466132.440000057</v>
+      </c>
+      <c r="E106">
+        <v>91584194.260000229</v>
+      </c>
+      <c r="F106">
+        <v>7147326773.5100002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" t="s">
+        <v>169</v>
+      </c>
+      <c r="D107">
+        <v>-7359333.8100004196</v>
+      </c>
+      <c r="E107">
+        <v>84224860.449999809</v>
+      </c>
+      <c r="F107">
+        <v>7207424070.9799995</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" t="s">
+        <v>169</v>
+      </c>
+      <c r="D108">
+        <v>85880176.100000381</v>
+      </c>
+      <c r="E108">
+        <v>170105036.55000019</v>
+      </c>
+      <c r="F108">
+        <v>7233502260.2799997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109">
+        <v>20045837.470000029</v>
+      </c>
+      <c r="E109">
+        <v>20045837.470000029</v>
+      </c>
+      <c r="F109">
+        <v>7281340056.0600004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" t="s">
+        <v>169</v>
+      </c>
+      <c r="D110">
+        <v>5980073.1199998856</v>
+      </c>
+      <c r="E110">
+        <v>26025910.58999991</v>
+      </c>
+      <c r="F110">
+        <v>7242640239.7200003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" t="s">
+        <v>169</v>
+      </c>
+      <c r="D111">
+        <v>44136027.720000029</v>
+      </c>
+      <c r="E111">
+        <v>70161938.309999943</v>
+      </c>
+      <c r="F111">
+        <v>7204723139.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" t="s">
+        <v>168</v>
+      </c>
+      <c r="C112" t="s">
+        <v>169</v>
+      </c>
+      <c r="D112">
+        <v>13368284.029999729</v>
+      </c>
+      <c r="E112">
+        <v>83530222.339999676</v>
+      </c>
+      <c r="F112">
+        <v>7221334314.6400003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" t="s">
+        <v>168</v>
+      </c>
+      <c r="C113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D113">
+        <v>17644119.170000549</v>
+      </c>
+      <c r="E113">
+        <v>101174341.5100002</v>
+      </c>
+      <c r="F113">
+        <v>7167626335.6999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" t="s">
+        <v>168</v>
+      </c>
+      <c r="C114" t="s">
+        <v>169</v>
+      </c>
+      <c r="D114">
+        <v>63387423.459999077</v>
+      </c>
+      <c r="E114">
+        <v>164561764.96999931</v>
+      </c>
+      <c r="F114">
+        <v>7114630325.5500002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="s">
+        <v>168</v>
+      </c>
+      <c r="C115" t="s">
+        <v>169</v>
+      </c>
+      <c r="D115">
+        <v>19924405.200000051</v>
+      </c>
+      <c r="E115">
+        <v>19924405.200000051</v>
+      </c>
+      <c r="F115">
+        <v>7245027683.0900002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" t="s">
+        <v>169</v>
+      </c>
+      <c r="D116">
+        <v>66418548.559999943</v>
+      </c>
+      <c r="E116">
+        <v>86342953.75999999</v>
+      </c>
+      <c r="F116">
+        <v>7128802880.3500004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" t="s">
+        <v>168</v>
+      </c>
+      <c r="C117" t="s">
+        <v>169</v>
+      </c>
+      <c r="D117">
+        <v>43090016.089999907</v>
+      </c>
+      <c r="E117">
+        <v>129432969.8499999</v>
+      </c>
+      <c r="F117">
+        <v>7090493155.71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="s">
+        <v>168</v>
+      </c>
+      <c r="C118" t="s">
+        <v>169</v>
+      </c>
+      <c r="D118">
+        <v>75520089.920000076</v>
+      </c>
+      <c r="E118">
+        <v>204953059.77000001</v>
+      </c>
+      <c r="F118">
+        <v>7067493674.8999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="s">
+        <v>168</v>
+      </c>
+      <c r="C119" t="s">
+        <v>169</v>
+      </c>
+      <c r="D119">
+        <v>78849938.459999561</v>
+      </c>
+      <c r="E119">
+        <v>283802998.22999948</v>
+      </c>
+      <c r="F119">
+        <v>7081233642.6999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" t="s">
+        <v>169</v>
+      </c>
+      <c r="D120">
+        <v>104352089.0600004</v>
+      </c>
+      <c r="E120">
+        <v>388155087.29000002</v>
+      </c>
+      <c r="F120">
+        <v>6867869071.8400002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" t="s">
+        <v>168</v>
+      </c>
+      <c r="C121" t="s">
+        <v>169</v>
+      </c>
+      <c r="D121">
+        <v>82545009.649999857</v>
+      </c>
+      <c r="E121">
+        <v>82545009.649999857</v>
+      </c>
+      <c r="F121">
+        <v>7053969830.2700005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" t="s">
+        <v>169</v>
+      </c>
+      <c r="D122">
+        <v>54762024.580000162</v>
+      </c>
+      <c r="E122">
+        <v>137307034.22999999</v>
+      </c>
+      <c r="F122">
+        <v>7029200041.9700003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" t="s">
+        <v>168</v>
+      </c>
+      <c r="C123" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123">
+        <v>80436785.210000038</v>
+      </c>
+      <c r="E123">
+        <v>217743819.44000009</v>
+      </c>
+      <c r="F123">
+        <v>7029124086.2799997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="s">
+        <v>168</v>
+      </c>
+      <c r="C124" t="s">
+        <v>169</v>
+      </c>
+      <c r="D124">
+        <v>81915050.590000629</v>
+      </c>
+      <c r="E124">
+        <v>299658870.03000069</v>
+      </c>
+      <c r="F124">
+        <v>7072667288.2299995</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" t="s">
+        <v>169</v>
+      </c>
+      <c r="D125">
+        <v>79180105.159998894</v>
+      </c>
+      <c r="E125">
+        <v>378838975.18999958</v>
+      </c>
+      <c r="F125">
+        <v>6888920464.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" t="s">
+        <v>168</v>
+      </c>
+      <c r="C126" t="s">
+        <v>169</v>
+      </c>
+      <c r="D126">
+        <v>87850808.070000648</v>
+      </c>
+      <c r="E126">
+        <v>466689783.26000023</v>
+      </c>
+      <c r="F126">
+        <v>6844126920.8199997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" t="s">
+        <v>168</v>
+      </c>
+      <c r="C127" t="s">
+        <v>169</v>
+      </c>
+      <c r="D127">
+        <v>29882091.849999901</v>
+      </c>
+      <c r="E127">
+        <v>29882091.849999901</v>
+      </c>
+      <c r="F127">
+        <v>7313295942.4499998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" t="s">
+        <v>168</v>
+      </c>
+      <c r="C128" t="s">
+        <v>169</v>
+      </c>
+      <c r="D128">
+        <v>142238181.59000021</v>
+      </c>
+      <c r="E128">
+        <v>172120273.44000009</v>
+      </c>
+      <c r="F128">
+        <v>7148805471.9899998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
